--- a/HD.xlsx
+++ b/HD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDB4678-52CB-4BEE-8F35-6FB6D075F9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E679BA22-9A21-4055-B2BC-32F3D31FC407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37000" yWindow="4170" windowWidth="32770" windowHeight="15380" xr2:uid="{2DDF7688-2E02-4661-90C9-5FA010AE5522}"/>
+    <workbookView xWindow="20800" yWindow="710" windowWidth="17600" windowHeight="20070" activeTab="1" xr2:uid="{2DDF7688-2E02-4661-90C9-5FA010AE5522}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Price</t>
   </si>
@@ -160,6 +160,27 @@
   </si>
   <si>
     <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q226</t>
+  </si>
+  <si>
+    <t>Q326</t>
+  </si>
+  <si>
+    <t>Q426</t>
   </si>
 </sst>
 </file>
@@ -252,6 +273,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A3D6E2-4A10-E678-A11D-E7870F5350B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10902950" y="25400"/>
+          <a:ext cx="0" cy="6616700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -573,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E5EC1E-7DCA-45DA-A36A-6616F35DDB55}">
   <dimension ref="K2:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -584,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>349</v>
+        <v>379.5</v>
       </c>
     </row>
     <row r="3" spans="11:13" x14ac:dyDescent="0.25">
@@ -592,10 +668,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="3">
-        <v>994.92798500000004</v>
+        <v>994</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="11:13" x14ac:dyDescent="0.25">
@@ -604,7 +680,7 @@
       </c>
       <c r="L4" s="3">
         <f>+L2*L3</f>
-        <v>347229.86676499998</v>
+        <v>377223</v>
       </c>
     </row>
     <row r="5" spans="11:13" x14ac:dyDescent="0.25">
@@ -612,10 +688,10 @@
         <v>3</v>
       </c>
       <c r="L5" s="3">
-        <v>1369</v>
+        <v>2804</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="11:13" x14ac:dyDescent="0.25">
@@ -623,11 +699,11 @@
         <v>4</v>
       </c>
       <c r="L6" s="3">
-        <f>38+47343+4885</f>
-        <v>52266</v>
+        <f>45917+6400</f>
+        <v>52317</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="11:13" x14ac:dyDescent="0.25">
@@ -636,14 +712,11 @@
       </c>
       <c r="L7" s="3">
         <f>+L4-L5+L6</f>
-        <v>398126.86676499998</v>
+        <v>426736</v>
       </c>
     </row>
     <row r="8" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="L8" s="1">
-        <f>+L7/24000</f>
-        <v>16.588619448541667</v>
-      </c>
+      <c r="L8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -652,13 +725,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28003C5-CD51-4AE7-8A66-A634D014CF60}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -669,10 +742,14 @@
     <col min="5" max="5" width="10.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="9.1796875" style="2"/>
     <col min="9" max="9" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="9.1796875" style="2"/>
+    <col min="10" max="12" width="9.6328125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.1796875" style="2" customWidth="1"/>
+    <col min="14" max="16" width="9.6328125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.08984375" style="2" customWidth="1"/>
+    <col min="18" max="23" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
@@ -700,8 +777,29 @@
       <c r="K1" s="4">
         <v>45410</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L1" s="4">
+        <v>45501</v>
+      </c>
+      <c r="M1" s="4">
+        <f>+I1+365</f>
+        <v>45593</v>
+      </c>
+      <c r="N1" s="4">
+        <v>45690</v>
+      </c>
+      <c r="O1" s="4">
+        <f>+K1+365</f>
+        <v>45775</v>
+      </c>
+      <c r="P1" s="4">
+        <v>45872</v>
+      </c>
+      <c r="Q1" s="4">
+        <f>+M1+365</f>
+        <v>45958</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -738,23 +836,47 @@
       <c r="N2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="O2" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="P2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
@@ -783,24 +905,43 @@
       <c r="K3" s="9">
         <v>36418</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="P3" s="8">
+      <c r="L3" s="9">
+        <v>43175</v>
+      </c>
+      <c r="M3" s="9">
+        <v>40217</v>
+      </c>
+      <c r="N3" s="9">
+        <v>39704</v>
+      </c>
+      <c r="O3" s="9">
+        <v>39856</v>
+      </c>
+      <c r="P3" s="9">
+        <v>45277</v>
+      </c>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="Y3" s="8">
         <v>132110</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Z3" s="8">
         <v>151157</v>
       </c>
-      <c r="R3" s="8">
+      <c r="AA3" s="8">
         <v>157403</v>
       </c>
-      <c r="S3" s="8">
+      <c r="AB3" s="8">
         <f>SUM(G3:J3)</f>
         <v>152669</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
@@ -829,24 +970,43 @@
       <c r="K4" s="5">
         <v>23985</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="P4" s="3">
+      <c r="L4" s="5">
+        <v>28759</v>
+      </c>
+      <c r="M4" s="5">
+        <v>26792</v>
+      </c>
+      <c r="N4" s="5">
+        <v>26670</v>
+      </c>
+      <c r="O4" s="5">
+        <v>26397</v>
+      </c>
+      <c r="P4" s="5">
+        <v>30152</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="Y4" s="3">
         <v>87257</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Z4" s="3">
         <v>100325</v>
       </c>
-      <c r="R4" s="3">
+      <c r="AA4" s="3">
         <v>104625</v>
       </c>
-      <c r="S4" s="3">
+      <c r="AB4" s="3">
         <f>SUM(G4:J4)</f>
         <v>101709</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
@@ -868,7 +1028,7 @@
         <v>12557</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" ref="H5:K5" si="0">+H3-H4</f>
+        <f t="shared" ref="H5:O5" si="0">+H3-H4</f>
         <v>14157</v>
       </c>
       <c r="I5" s="5">
@@ -883,27 +1043,51 @@
         <f t="shared" si="0"/>
         <v>12433</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="P5" s="3">
+      <c r="L5" s="5">
+        <f t="shared" si="0"/>
+        <v>14416</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="0"/>
+        <v>13425</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="0"/>
+        <v>13034</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="0"/>
+        <v>13459</v>
+      </c>
+      <c r="P5" s="5">
         <f>+P3-P4</f>
+        <v>15125</v>
+      </c>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="Y5" s="3">
+        <f>+Y3-Y4</f>
         <v>44853</v>
       </c>
-      <c r="Q5" s="3">
-        <f>+Q3-Q4</f>
+      <c r="Z5" s="3">
+        <f>+Z3-Z4</f>
         <v>50832</v>
       </c>
-      <c r="R5" s="3">
-        <f>+R3-R4</f>
+      <c r="AA5" s="3">
+        <f>+AA3-AA4</f>
         <v>52778</v>
       </c>
-      <c r="S5" s="3">
-        <f>+S3-S4</f>
+      <c r="AB5" s="3">
+        <f>+AB3-AB4</f>
         <v>50960</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
@@ -932,24 +1116,43 @@
       <c r="K6" s="5">
         <v>6667</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="P6" s="3">
+      <c r="L6" s="5">
+        <v>7144</v>
+      </c>
+      <c r="M6" s="5">
+        <v>7212</v>
+      </c>
+      <c r="N6" s="5">
+        <v>7725</v>
+      </c>
+      <c r="O6" s="5">
+        <v>7530</v>
+      </c>
+      <c r="P6" s="5">
+        <v>7764</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="Y6" s="3">
         <v>24447</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Z6" s="3">
         <v>25406</v>
       </c>
-      <c r="R6" s="3">
+      <c r="AA6" s="3">
         <v>26284</v>
       </c>
-      <c r="S6" s="3">
+      <c r="AB6" s="3">
         <f>SUM(G6:J6)</f>
         <v>25598</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
@@ -986,27 +1189,51 @@
         <f>+K5-K6</f>
         <v>5766</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="P7" s="3">
-        <f t="shared" ref="P7:R7" si="2">+P5-P6</f>
+      <c r="L7" s="5">
+        <f t="shared" ref="L7:P7" si="2">+L5-L6</f>
+        <v>7272</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="2"/>
+        <v>6213</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="2"/>
+        <v>5309</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="2"/>
+        <v>5929</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="2"/>
+        <v>7361</v>
+      </c>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="Y7" s="3">
+        <f t="shared" ref="Y7:AA7" si="3">+Y5-Y6</f>
         <v>20406</v>
       </c>
-      <c r="Q7" s="3">
-        <f t="shared" si="2"/>
+      <c r="Z7" s="3">
+        <f t="shared" si="3"/>
         <v>25426</v>
       </c>
-      <c r="R7" s="3">
-        <f t="shared" si="2"/>
+      <c r="AA7" s="3">
+        <f t="shared" si="3"/>
         <v>26494</v>
       </c>
-      <c r="S7" s="3">
-        <f>+S5-S6</f>
+      <c r="AB7" s="3">
+        <f>+AB5-AB6</f>
         <v>25362</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
@@ -1043,81 +1270,129 @@
         <f>-485+57</f>
         <v>-428</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="P8" s="3">
+      <c r="L8" s="5">
+        <f>84-573</f>
+        <v>-489</v>
+      </c>
+      <c r="M8" s="5">
+        <f>30-625</f>
+        <v>-595</v>
+      </c>
+      <c r="N8" s="5">
+        <f>30-638</f>
+        <v>-608</v>
+      </c>
+      <c r="O8" s="5">
+        <f>24-615</f>
+        <v>-591</v>
+      </c>
+      <c r="P8" s="5">
+        <f>25-575</f>
+        <v>-550</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="Y8" s="3">
         <v>-1562</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Z8" s="3">
         <v>-1303</v>
       </c>
-      <c r="R8" s="3">
+      <c r="AA8" s="3">
         <v>-1300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="AB8" s="3">
         <f>SUM(G8:J8)</f>
         <v>-1765</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5">
-        <f t="shared" ref="D9:J9" si="3">+D7+D8</f>
+        <f t="shared" ref="D9:J9" si="4">+D7+D8</f>
         <v>7447</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6350</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4969</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5761</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7814</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5651</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4371</v>
       </c>
       <c r="K9" s="5">
         <f>+K7+K8</f>
         <v>5338</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="P9" s="3">
-        <f>+P7+P8</f>
+      <c r="L9" s="5">
+        <f t="shared" ref="L9:P9" si="5">+L7+L8</f>
+        <v>6783</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="5"/>
+        <v>5618</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="5"/>
+        <v>4701</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="5"/>
+        <v>5338</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" si="5"/>
+        <v>6811</v>
+      </c>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="Y9" s="3">
+        <f>+Y7+Y8</f>
         <v>18844</v>
       </c>
-      <c r="Q9" s="3">
-        <f>+Q7+Q8</f>
+      <c r="Z9" s="3">
+        <f>+Z7+Z8</f>
         <v>24123</v>
       </c>
-      <c r="R9" s="3">
-        <f>+R7+R8</f>
+      <c r="AA9" s="3">
+        <f>+AA7+AA8</f>
         <v>25194</v>
       </c>
-      <c r="S9" s="3">
-        <f>+S7+S8</f>
+      <c r="AB9" s="3">
+        <f>+AB7+AB8</f>
         <v>23597</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
@@ -1146,134 +1421,197 @@
       <c r="K10" s="5">
         <v>1051</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="P10" s="3">
+      <c r="L10" s="5">
+        <v>1484</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1175</v>
+      </c>
+      <c r="N10" s="5">
+        <v>890</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1109</v>
+      </c>
+      <c r="P10" s="5">
+        <v>1454</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="Y10" s="3">
         <v>4112</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Z10" s="3">
         <v>5304</v>
       </c>
-      <c r="R10" s="3">
+      <c r="AA10" s="3">
         <v>5372</v>
       </c>
-      <c r="S10" s="3">
+      <c r="AB10" s="3">
         <f>SUM(G10:J10)</f>
         <v>4781</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5">
-        <f t="shared" ref="D11:J11" si="4">+D9-D10</f>
+        <f t="shared" ref="D11:J11" si="6">+D9-D10</f>
         <v>5789</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4947</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3987</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4524</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6312</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4493</v>
       </c>
       <c r="J11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3487</v>
       </c>
       <c r="K11" s="5">
         <f>+K9-K10</f>
         <v>4287</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="P11" s="3">
-        <f>+P9-P10</f>
+      <c r="L11" s="5">
+        <f t="shared" ref="L11:P11" si="7">+L9-L10</f>
+        <v>5299</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="7"/>
+        <v>4443</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" si="7"/>
+        <v>3811</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="7"/>
+        <v>4229</v>
+      </c>
+      <c r="P11" s="5">
+        <f t="shared" si="7"/>
+        <v>5357</v>
+      </c>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="Y11" s="3">
+        <f>+Y9-Y10</f>
         <v>14732</v>
       </c>
-      <c r="Q11" s="3">
-        <f>+Q9-Q10</f>
+      <c r="Z11" s="3">
+        <f>+Z9-Z10</f>
         <v>18819</v>
       </c>
-      <c r="R11" s="3">
-        <f>+R9-R10</f>
+      <c r="AA11" s="3">
+        <f>+AA9-AA10</f>
         <v>19822</v>
       </c>
-      <c r="S11" s="3">
-        <f>+S9-S10</f>
+      <c r="AB11" s="3">
+        <f>+AB9-AB10</f>
         <v>18816</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="6">
-        <f t="shared" ref="D12:J12" si="5">+D11/D13</f>
+        <f t="shared" ref="D12:J12" si="8">+D11/D13</f>
         <v>5.6478048780487802</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.8357771260997069</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.9165029469548132</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.4659427443237911</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.2931206380857425</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.4974974974974975</v>
       </c>
       <c r="J12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.5080482897384306</v>
       </c>
       <c r="K12" s="6">
         <f>+K11/K13</f>
         <v>4.321572580645161</v>
       </c>
-      <c r="P12" s="1">
-        <f t="shared" ref="P12:R12" si="6">+P11/P13</f>
+      <c r="L12" s="6">
+        <f t="shared" ref="L12:P12" si="9">+L11/L13</f>
+        <v>5.341733870967742</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="9"/>
+        <v>4.4743202416918431</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="9"/>
+        <v>3.8340040241448694</v>
+      </c>
+      <c r="O12" s="6">
+        <f t="shared" si="9"/>
+        <v>4.2545271629778671</v>
+      </c>
+      <c r="P12" s="6">
+        <f t="shared" si="9"/>
+        <v>5.3893360160965793</v>
+      </c>
+      <c r="Y12" s="1">
+        <f t="shared" ref="Y12:AA12" si="10">+Y11/Y13</f>
         <v>13.66604823747681</v>
       </c>
-      <c r="Q12" s="1">
-        <f t="shared" si="6"/>
+      <c r="Z12" s="1">
+        <f t="shared" si="10"/>
         <v>17.78733459357278</v>
       </c>
-      <c r="R12" s="1">
-        <f t="shared" si="6"/>
+      <c r="AA12" s="1">
+        <f t="shared" si="10"/>
         <v>19.338536585365855</v>
       </c>
-      <c r="S12" s="1">
-        <f>+S11/S13</f>
+      <c r="AB12" s="1">
+        <f>+AB11/AB13</f>
         <v>18.773759042155152</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1302,24 +1640,43 @@
       <c r="K13" s="5">
         <v>992</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="P13" s="3">
+      <c r="L13" s="5">
+        <v>992</v>
+      </c>
+      <c r="M13" s="5">
+        <v>993</v>
+      </c>
+      <c r="N13" s="5">
+        <v>994</v>
+      </c>
+      <c r="O13" s="5">
+        <v>994</v>
+      </c>
+      <c r="P13" s="5">
+        <v>994</v>
+      </c>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="Y13" s="3">
         <v>1078</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Z13" s="3">
         <v>1058</v>
       </c>
-      <c r="R13" s="3">
+      <c r="AA13" s="3">
         <v>1025</v>
       </c>
-      <c r="S13" s="3">
+      <c r="AB13" s="3">
         <f>AVERAGE(G13:J13)</f>
         <v>1002.25</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
@@ -1339,73 +1696,113 @@
         <f>+K3/G3-1</f>
         <v>-2.2519258125989761E-2</v>
       </c>
-      <c r="Q15" s="10">
-        <f>+Q3/P3-1</f>
+      <c r="L15" s="7">
+        <f>+L3/H3-1</f>
+        <v>6.0350452045856429E-3</v>
+      </c>
+      <c r="M15" s="7">
+        <f>+M3/I3-1</f>
+        <v>6.6481039512065854E-2</v>
+      </c>
+      <c r="N15" s="7">
+        <f>+N3/J3-1</f>
+        <v>0.14137871557523152</v>
+      </c>
+      <c r="O15" s="7">
+        <f>+O3/K3-1</f>
+        <v>9.4403866220001076E-2</v>
+      </c>
+      <c r="P15" s="7">
+        <f>+P3/L3-1</f>
+        <v>4.868558193398953E-2</v>
+      </c>
+      <c r="Z15" s="10">
+        <f>+Z3/Y3-1</f>
         <v>0.14417530845507542</v>
       </c>
-      <c r="R15" s="10">
-        <f t="shared" ref="R15:S15" si="7">+R3/Q3-1</f>
+      <c r="AA15" s="10">
+        <f t="shared" ref="AA15:AB15" si="11">+AA3/Z3-1</f>
         <v>4.1321275230389531E-2</v>
       </c>
-      <c r="S15" s="10">
-        <f t="shared" si="7"/>
+      <c r="AB15" s="10">
+        <f t="shared" si="11"/>
         <v>-3.0075665648049865E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="7">
-        <f t="shared" ref="D16:J16" si="8">+D5/D3</f>
+        <f t="shared" ref="D16:J16" si="12">+D5/D3</f>
         <v>0.33072250639386191</v>
       </c>
       <c r="E16" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.34019345544350688</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.33284027797158883</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.33703733526585611</v>
       </c>
       <c r="H16" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.32987696896262464</v>
       </c>
       <c r="I16" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.33778838504375497</v>
       </c>
       <c r="J16" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.33082274478238372</v>
       </c>
       <c r="K16" s="7">
         <f>+K5/K3</f>
         <v>0.34139711131857875</v>
       </c>
+      <c r="L16" s="7">
+        <f>+L5/L3</f>
+        <v>0.33389693109438334</v>
+      </c>
+      <c r="M16" s="7">
+        <f>+M5/M3</f>
+        <v>0.33381405873138226</v>
+      </c>
+      <c r="N16" s="7">
+        <f>+N5/N3</f>
+        <v>0.32827926657263751</v>
+      </c>
+      <c r="O16" s="7">
+        <f>+O5/O3</f>
+        <v>0.33769068647129669</v>
+      </c>
       <c r="P16" s="7">
-        <f t="shared" ref="P16:S16" si="9">+P5/P3</f>
+        <f>+P5/P3</f>
+        <v>0.33405481811957505</v>
+      </c>
+      <c r="Y16" s="7">
+        <f t="shared" ref="Y16:AB16" si="13">+Y5/Y3</f>
         <v>0.33951252743925514</v>
       </c>
-      <c r="Q16" s="7">
-        <f t="shared" si="9"/>
+      <c r="Z16" s="7">
+        <f t="shared" si="13"/>
         <v>0.33628611311417927</v>
       </c>
-      <c r="R16" s="7">
-        <f t="shared" si="9"/>
+      <c r="AA16" s="7">
+        <f t="shared" si="13"/>
         <v>0.33530491794946732</v>
       </c>
-      <c r="S16" s="7">
-        <f t="shared" si="9"/>
+      <c r="AB16" s="7">
+        <f t="shared" si="13"/>
         <v>0.33379402498215094</v>
       </c>
     </row>
-    <row r="18" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
@@ -1419,7 +1816,7 @@
         <v>6561</v>
       </c>
       <c r="F18" s="5">
-        <f>+S18-E18-D18-C18</f>
+        <f>+AB18-E18-D18-C18</f>
         <v>872</v>
       </c>
       <c r="G18" s="5">
@@ -1434,7 +1831,7 @@
         <v>4234</v>
       </c>
       <c r="J18" s="5">
-        <f>+T18-I18-G18</f>
+        <f>+AC18-I18-G18</f>
         <v>11324</v>
       </c>
       <c r="K18" s="5">
@@ -1443,23 +1840,32 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
-      <c r="P18" s="3">
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="Y18" s="3">
         <v>18839</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Z18" s="3">
         <v>16571</v>
       </c>
-      <c r="R18" s="3">
+      <c r="AA18" s="3">
         <v>14615</v>
       </c>
-      <c r="S18" s="3">
+      <c r="AB18" s="3">
         <v>14615</v>
       </c>
-      <c r="T18" s="3">
+      <c r="AC18" s="3">
         <v>21172</v>
       </c>
     </row>
-    <row r="19" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>32</v>
       </c>
@@ -1473,7 +1879,7 @@
         <v>769</v>
       </c>
       <c r="F19" s="5">
-        <f>+S19-E19-D19-C19</f>
+        <f>+AB19-E19-D19-C19</f>
         <v>903</v>
       </c>
       <c r="G19" s="5">
@@ -1488,7 +1894,7 @@
         <v>671</v>
       </c>
       <c r="J19" s="5">
-        <f>+T19-I19-G19</f>
+        <f>+AC19-I19-G19</f>
         <v>1650</v>
       </c>
       <c r="K19" s="5">
@@ -1497,23 +1903,32 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
-      <c r="P19" s="3">
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="Y19" s="3">
         <v>2463</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Z19" s="3">
         <v>2566</v>
       </c>
-      <c r="R19" s="3">
+      <c r="AA19" s="3">
         <v>3119</v>
       </c>
-      <c r="S19" s="3">
+      <c r="AB19" s="3">
         <v>3119</v>
       </c>
-      <c r="T19" s="3">
+      <c r="AC19" s="3">
         <v>3226</v>
       </c>
     </row>
-    <row r="20" spans="2:20" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:29" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
@@ -1527,7 +1942,7 @@
         <v>5792</v>
       </c>
       <c r="F20" s="5">
-        <f>+S20-E20-D20-C20</f>
+        <f>+AB20-E20-D20-C20</f>
         <v>-31</v>
       </c>
       <c r="G20" s="5">
@@ -1539,42 +1954,51 @@
         <v>5799</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" ref="I20:K20" si="10">+I18-I19</f>
+        <f t="shared" ref="I20:K20" si="14">+I18-I19</f>
         <v>3563</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>9674</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4650</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
-      <c r="P20" s="8">
-        <f>+P18-P19</f>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="Y20" s="8">
+        <f>+Y18-Y19</f>
         <v>16376</v>
       </c>
-      <c r="Q20" s="8">
-        <f>+Q18-Q19</f>
+      <c r="Z20" s="8">
+        <f>+Z18-Z19</f>
         <v>14005</v>
       </c>
-      <c r="R20" s="8">
-        <f>+R18-R19</f>
+      <c r="AA20" s="8">
+        <f>+AA18-AA19</f>
         <v>11496</v>
       </c>
-      <c r="S20" s="8">
-        <f>+S18-S19</f>
+      <c r="AB20" s="8">
+        <f>+AB18-AB19</f>
         <v>11496</v>
       </c>
-      <c r="T20" s="8">
-        <f>+T18-T19</f>
+      <c r="AC20" s="8">
+        <f>+AC18-AC19</f>
         <v>17946</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>36</v>
       </c>
@@ -1605,5 +2029,6 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{AD3A22C8-1FC7-4D86-85FB-248C5BE6ECB7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>